--- a/MotivacionalEnem.xlsx
+++ b/MotivacionalEnem.xlsx
@@ -460,7 +460,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Não desista, sempre há uma nova chance! #FocoENEM</t>
+          <t>Não desista! Ainda há tempo para brilhar. #ENEM2022</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>"Não se deixe abalar! A nota baixa na redação é apenas um obstáculo para superar. Você é capaz de melhorar!"</t>
+          <t>"Você é capaz de alcançar resultados incríveis! Não desanime, estude, acredite e brilhe na próxima vez! 💪📚 #ENEM2022"</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>"Não desista, seu potencial é maior do que uma nota!"</t>
+          <t>"Não desista! A redação é apenas um desafio, você é capaz de se superar e conquistar uma nota excelente! #ENEM2022"</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>"Acredite no seu potencial e recomece. O sucesso ainda está ao seu alcance! #Vamosestudar"</t>
+          <t>Você é capaz de superar qualquer desafio! Acredite em você! (ENEM2022)</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arrasei na redação! Parabéns, campeão! 🚀💪 #Enem2021</t>
+          <t>Parabéns pelo seu desempenho incrível na redação do ENEM 2022! Sua nota alta é reflexo do seu esforço e dedicação. Continue confiante, pois você tem todo o potencial para alcançar seus objetivos. Vamos juntos rumo ao sucesso! #ENEM2022</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>"Não deixe de acreditar em si mesmo. Ainda há tempo para brilhar. #VaiDarCerto"</t>
+          <t>Você é capaz de fazer a diferença! Não desista, prove seu potencial. #ENEM2022</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Parabéns! Brilhe sempre! ✨✨</t>
+          <t>Parabéns pelo excelente resultado na redação do ENEM! Sua dedicação e brilhante desempenho são inspiradores! #RumoÀRealização (ENEM2022)</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Parabéns, voe alto na conquista do seu futuro! 🚀✨ #ENEM2021</t>
+          <t>Parabéns, 210057728624.0! Sua nota na redação é uma prova do seu talento e dedicação. Continue brilhando, o futuro é seu! #ENEM2022</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Parabéns! Você arrasou na redação. Voe ainda mais alto! 🚀</t>
+          <t>Parabéns, campeão da redação! Sua nota é incrível! Você mostrou todo seu potencial. Parabéns, #futurouniversitário. (ENEM2022)</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>"Parabéns pelo seu êxito na redação do ENEM! Seu esforço e dedicação valeram a pena. Continue brilhando!"</t>
+          <t>Parabéns, #210057182714! Sua pontuação na redação do ENEM2022 é incrível! Continue sendo um verdadeiro exemplo de dedicação e excelência. Seu futuro brilhante depende só de você! #VoaAlto 🚀✨</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>"Não desista, dedique-se e supere seus limites! Você pode alcançar uma nota incrível na próxima redação do ENEM!"</t>
+          <t>"Não deixe uma nota baixa definir o seu futuro. Estamos juntos nessa jornada, acredite em si mesmo e supere os obstáculos. Vamos com tudo no ENEM2022!"</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>"Não desista, a próxima redação pode ser a oportunidade de brilhar! #FocoNoEnem"</t>
+          <t>"Não desista, a redação é apenas uma batalha. Mantenha-se firme e se supere no próximo desafio! 💪 #ENEM2022"</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>"Não desista! Sua perseverança te levará ao sucesso. 💪"</t>
+          <t xml:space="preserve">"Não desanime! Seu potencial é imenso e o próximo ENEM será a oportunidade de brilhar ainda mais! #VoaAlto" </t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>"Não desista! Seu potencial é maior do que uma nota. Pratique, revise e brilhe no próximo desafio!"</t>
+          <t>"Não desanime! A nota de redação não define seu potencial. Acredite em você e persista na busca pelo seu sonho. #ENEM2022"</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Parabéns, seu talento é incrível! 🌟✨ #Sucesso2022</t>
+          <t>Parabéns, 210054659789.0! Sua nota na redação do ENEM (660.0) mostra todo o seu potencial. Continue brilhando e conquistando seus sonhos! #ENEM2022</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acredite em si mesmo! Ainda há tempo para se superar. #VocêPode</t>
+          <t>Não desista, ainda há tempo para brilhar!</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>"Não desista, ainda há tempo para brilhar! Você é capaz!"</t>
+          <t>Não desista! Ainda há tempo para brilhar. #ENEM2022</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Você é capaz de superar qualquer desafio! Não desista agora!</t>
+          <t>"Não desista, seu potencial é maior do que a falta dessa redação. Continue em frente! #ENEM2022"</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>"Nunca é tarde para recomeçar! Você consegue!"</t>
+          <t>Você pode fazer a diferença! Persista e supere todos os obstáculos! #ENEM2022</t>
         </is>
       </c>
     </row>
